--- a/container_app/容器应用汇总.xlsx
+++ b/container_app/容器应用汇总.xlsx
@@ -1695,10 +1695,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1733,9 +1733,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,15 +1821,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1771,29 +1830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1808,14 +1845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,37 +1853,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1900,7 +1900,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,61 +2032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,73 +2062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,24 +2075,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,6 +2104,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2122,6 +2137,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2129,11 +2168,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2155,48 +2192,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2208,10 +2208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2220,16 +2220,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2241,116 +2241,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2372,9 +2372,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2387,20 +2384,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2726,19 +2711,18 @@
   <sheetPr/>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="3" width="32.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.89166666666667" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.225" customWidth="1"/>
-    <col min="8" max="8" width="14.225" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="8.89166666666667" customWidth="1"/>
+    <col min="7" max="8" width="14.225" customWidth="1"/>
     <col min="9" max="9" width="18.4416666666667" customWidth="1"/>
     <col min="10" max="10" width="76.4083333333333" customWidth="1"/>
     <col min="11" max="11" width="116.75" customWidth="1"/>
@@ -2817,7 +2801,7 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="1"/>
@@ -2854,7 +2838,7 @@
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="1"/>
@@ -2891,7 +2875,7 @@
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="1"/>
@@ -2928,7 +2912,7 @@
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="1"/>
@@ -2965,7 +2949,7 @@
       <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="1"/>
@@ -3002,7 +2986,7 @@
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="L7" s="1"/>
@@ -3039,7 +3023,7 @@
       <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -3078,7 +3062,7 @@
       <c r="J9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>57</v>
       </c>
       <c r="L9" s="1"/>
@@ -3115,7 +3099,7 @@
       <c r="J10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -3154,7 +3138,7 @@
       <c r="J11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="1"/>
@@ -3191,7 +3175,7 @@
       <c r="J12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>72</v>
       </c>
       <c r="L12" s="1"/>
@@ -3228,7 +3212,7 @@
       <c r="J13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>77</v>
       </c>
       <c r="L13" s="1"/>
@@ -3265,7 +3249,7 @@
       <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>81</v>
       </c>
       <c r="L14" s="1"/>
@@ -3302,7 +3286,7 @@
       <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L15" s="1"/>
@@ -3337,7 +3321,7 @@
       <c r="J16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>90</v>
       </c>
       <c r="L16" s="1"/>
@@ -3374,7 +3358,7 @@
       <c r="J17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L17" s="1"/>
@@ -3411,7 +3395,7 @@
       <c r="J18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>98</v>
       </c>
       <c r="L18" s="1"/>
@@ -3448,7 +3432,7 @@
       <c r="J19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L19" s="1"/>
@@ -3485,7 +3469,7 @@
       <c r="J20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L20" s="1"/>
@@ -3522,7 +3506,7 @@
       <c r="J21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3561,7 +3545,7 @@
       <c r="J22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>115</v>
       </c>
       <c r="L22" s="1"/>
@@ -3598,7 +3582,7 @@
       <c r="J23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>119</v>
       </c>
       <c r="L23" s="1"/>
@@ -3635,7 +3619,7 @@
       <c r="J24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>124</v>
       </c>
       <c r="L24" s="1"/>
@@ -3672,7 +3656,7 @@
       <c r="J25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>128</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -3711,7 +3695,7 @@
       <c r="J26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>133</v>
       </c>
       <c r="L26" s="1"/>
@@ -3748,7 +3732,7 @@
       <c r="J27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>137</v>
       </c>
       <c r="L27" s="1"/>
@@ -3785,7 +3769,7 @@
       <c r="J28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>141</v>
       </c>
       <c r="L28" s="1"/>
@@ -3822,7 +3806,7 @@
       <c r="J29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>145</v>
       </c>
       <c r="L29" s="1"/>
@@ -3859,7 +3843,7 @@
       <c r="J30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>149</v>
       </c>
       <c r="L30" s="1"/>
@@ -3896,7 +3880,7 @@
       <c r="J31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>153</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -3935,7 +3919,7 @@
       <c r="J32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>157</v>
       </c>
       <c r="L32" s="1"/>
@@ -3972,7 +3956,7 @@
       <c r="J33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>161</v>
       </c>
       <c r="L33" s="1"/>
@@ -4009,7 +3993,7 @@
       <c r="J34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>165</v>
       </c>
       <c r="L34" s="1"/>
@@ -4046,7 +4030,7 @@
       <c r="J35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>169</v>
       </c>
       <c r="L35" s="1"/>
@@ -4083,7 +4067,7 @@
       <c r="J36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>173</v>
       </c>
       <c r="L36" s="1"/>
@@ -4120,7 +4104,7 @@
       <c r="J37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>177</v>
       </c>
       <c r="L37" s="1"/>
@@ -4157,7 +4141,7 @@
       <c r="J38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="1"/>
@@ -4194,7 +4178,7 @@
       <c r="J39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>186</v>
       </c>
       <c r="L39" s="1"/>
@@ -4231,7 +4215,7 @@
       <c r="J40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>191</v>
       </c>
       <c r="L40" s="1"/>
@@ -4268,7 +4252,7 @@
       <c r="J41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>195</v>
       </c>
       <c r="L41" s="1"/>
@@ -4305,7 +4289,7 @@
       <c r="J42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>199</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -4317,10 +4301,10 @@
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>202</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4344,7 +4328,7 @@
       <c r="J43" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>204</v>
       </c>
       <c r="L43" s="3"/>
@@ -4357,7 +4341,7 @@
       <c r="B44" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -4381,10 +4365,10 @@
       <c r="J44" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M44" s="3"/>
@@ -4393,10 +4377,10 @@
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -4420,7 +4404,7 @@
       <c r="J45" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>212</v>
       </c>
       <c r="L45" s="3"/>
@@ -4433,7 +4417,7 @@
       <c r="B46" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>214</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -4457,10 +4441,10 @@
       <c r="J46" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M46" s="3"/>
@@ -4472,7 +4456,7 @@
       <c r="B47" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -4496,10 +4480,10 @@
       <c r="J47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M47" s="3"/>
@@ -4511,7 +4495,7 @@
       <c r="B48" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -4535,7 +4519,7 @@
       <c r="J48" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>224</v>
       </c>
       <c r="L48" s="3"/>
@@ -4548,10 +4532,10 @@
       <c r="B49" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>227</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -4572,7 +4556,7 @@
       <c r="J49" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>229</v>
       </c>
       <c r="L49" s="3"/>
@@ -4585,7 +4569,7 @@
       <c r="B50" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -4609,10 +4593,10 @@
       <c r="J50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M50" s="3"/>
@@ -4624,7 +4608,7 @@
       <c r="B51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -4648,10 +4632,10 @@
       <c r="J51" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="7" t="s">
         <v>238</v>
       </c>
       <c r="M51" s="3"/>
@@ -4663,7 +4647,7 @@
       <c r="B52" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -4687,7 +4671,7 @@
       <c r="J52" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>242</v>
       </c>
       <c r="L52" s="3"/>
@@ -4700,7 +4684,7 @@
       <c r="B53" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>244</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -4724,10 +4708,10 @@
       <c r="J53" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M53" s="3"/>
@@ -4739,7 +4723,7 @@
       <c r="B54" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>248</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -4763,7 +4747,7 @@
       <c r="J54" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>250</v>
       </c>
       <c r="L54" s="3"/>
@@ -4776,7 +4760,7 @@
       <c r="B55" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -4800,7 +4784,7 @@
       <c r="J55" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>254</v>
       </c>
       <c r="L55" s="3"/>
@@ -4834,10 +4818,10 @@
       <c r="I56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>259</v>
       </c>
       <c r="L56" s="3"/>
@@ -4850,7 +4834,7 @@
       <c r="B57" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>261</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4874,10 +4858,10 @@
       <c r="J57" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M57" s="3"/>
@@ -4889,7 +4873,7 @@
       <c r="B58" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>265</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4913,7 +4897,7 @@
       <c r="J58" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>267</v>
       </c>
       <c r="L58" s="3"/>
@@ -4923,10 +4907,10 @@
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>269</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -4950,7 +4934,7 @@
       <c r="J59" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>271</v>
       </c>
       <c r="L59" s="3"/>
@@ -4963,7 +4947,7 @@
       <c r="B60" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>273</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -4987,10 +4971,10 @@
       <c r="J60" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M60" s="3"/>
@@ -4999,10 +4983,10 @@
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>277</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -5026,10 +5010,10 @@
       <c r="J61" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="7" t="s">
         <v>63</v>
       </c>
       <c r="M61" s="3"/>
@@ -5041,7 +5025,7 @@
       <c r="B62" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5065,7 +5049,7 @@
       <c r="J62" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>283</v>
       </c>
       <c r="L62" s="3"/>
@@ -5075,10 +5059,10 @@
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -5102,7 +5086,7 @@
       <c r="J63" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>287</v>
       </c>
       <c r="L63" s="3"/>
@@ -5115,7 +5099,7 @@
       <c r="B64" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>289</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -5139,7 +5123,7 @@
       <c r="J64" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="10" t="s">
         <v>291</v>
       </c>
       <c r="L64" s="3"/>
@@ -5152,7 +5136,7 @@
       <c r="B65" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>293</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5176,7 +5160,7 @@
       <c r="J65" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="10" t="s">
         <v>295</v>
       </c>
       <c r="L65" s="3"/>
@@ -5189,7 +5173,7 @@
       <c r="B66" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -5213,7 +5197,7 @@
       <c r="J66" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="10" t="s">
         <v>299</v>
       </c>
       <c r="L66" s="3"/>
@@ -5226,7 +5210,7 @@
       <c r="B67" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -5250,7 +5234,7 @@
       <c r="J67" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="10" t="s">
         <v>303</v>
       </c>
       <c r="L67" s="3"/>
@@ -5263,7 +5247,7 @@
       <c r="B68" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>305</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -5287,7 +5271,7 @@
       <c r="J68" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="10" t="s">
         <v>307</v>
       </c>
       <c r="L68" s="3"/>
@@ -5297,13 +5281,13 @@
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>310</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -5324,7 +5308,7 @@
       <c r="J69" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="10" t="s">
         <v>312</v>
       </c>
       <c r="L69" s="3"/>
@@ -5337,7 +5321,7 @@
       <c r="B70" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -5361,7 +5345,7 @@
       <c r="J70" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>316</v>
       </c>
       <c r="L70" s="3"/>
@@ -5374,7 +5358,7 @@
       <c r="B71" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>318</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5395,10 +5379,10 @@
       <c r="I71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="10" t="s">
         <v>320</v>
       </c>
       <c r="L71" s="3"/>
@@ -5408,13 +5392,13 @@
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>323</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -5435,7 +5419,7 @@
       <c r="J72" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>326</v>
       </c>
       <c r="L72" s="3"/>
@@ -5448,7 +5432,7 @@
       <c r="B73" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>328</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5472,7 +5456,7 @@
       <c r="J73" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="10" t="s">
         <v>330</v>
       </c>
       <c r="L73" s="3"/>
@@ -5485,10 +5469,10 @@
       <c r="B74" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>333</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -5506,10 +5490,10 @@
       <c r="I74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>335</v>
       </c>
       <c r="L74" s="3"/>
@@ -5519,13 +5503,13 @@
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>338</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -5541,10 +5525,10 @@
       <c r="I75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="10" t="s">
         <v>341</v>
       </c>
       <c r="L75" s="3"/>
@@ -5557,10 +5541,10 @@
       <c r="B76" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>344</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -5576,10 +5560,10 @@
       <c r="I76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K76" s="15" t="s">
+      <c r="K76" s="11" t="s">
         <v>346</v>
       </c>
       <c r="L76" s="3"/>
@@ -5592,10 +5576,10 @@
       <c r="B77" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -5616,7 +5600,7 @@
       <c r="J77" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="10" t="s">
         <v>350</v>
       </c>
       <c r="L77" s="3"/>
@@ -5626,22 +5610,22 @@
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5650,14 +5634,14 @@
       <c r="I78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K78" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
     </row>
     <row r="79" ht="40.5" spans="1:13">
       <c r="A79" s="1" t="s">
@@ -5666,19 +5650,19 @@
       <c r="B79" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="12" t="s">
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -5687,35 +5671,35 @@
       <c r="I79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
     </row>
     <row r="80" ht="27" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="12" t="s">
+      <c r="D80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -5724,35 +5708,35 @@
       <c r="I80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
     </row>
     <row r="81" ht="121.5" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="12" t="s">
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -5761,35 +5745,35 @@
       <c r="I81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5798,167 +5782,167 @@
       <c r="I82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" ht="54" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="I83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K83" s="17" t="s">
+      <c r="K83" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" ht="67.5" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12" t="s">
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="I84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" ht="27" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12" t="s">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
     </row>
     <row r="86" ht="27" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="I86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" ht="40.5" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="12" t="s">
+      <c r="D87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -5967,35 +5951,35 @@
       <c r="I87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
     </row>
     <row r="88" ht="54" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="12" t="s">
+      <c r="D88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>395</v>
       </c>
       <c r="H88" s="3" t="s">
@@ -6004,35 +5988,35 @@
       <c r="I88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="K88" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
     </row>
     <row r="89" ht="40.5" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="12" t="s">
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -6041,459 +6025,459 @@
       <c r="I89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K89" s="16" t="s">
+      <c r="K89" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
     </row>
     <row r="90" ht="135" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="12" t="s">
+      <c r="D90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J90" s="12" t="s">
+      <c r="G90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="K90" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
     </row>
     <row r="91" ht="27" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C91" t="s">
         <v>407</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="12" t="s">
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G91" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="12" t="s">
+      <c r="G91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="K91" s="16" t="s">
+      <c r="K91" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
     </row>
     <row r="92" ht="27" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="12" t="s">
+      <c r="D92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" s="12" t="s">
+      <c r="G92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="K92" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="93" ht="40.5" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J93" s="13" t="s">
+      <c r="D93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K93" s="16" t="s">
+      <c r="K93" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
     </row>
     <row r="94" ht="27" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D94" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="12" t="s">
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G94" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="12" t="s">
+      <c r="G94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="K94" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
     </row>
     <row r="95" ht="67.5" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="12" t="s">
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12" t="s">
+      <c r="G95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K95" s="16" t="s">
+      <c r="K95" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
     </row>
     <row r="96" ht="67.5" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D96" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="12" t="s">
+      <c r="D96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G96" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J96" s="12" t="s">
+      <c r="G96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="K96" s="16" t="s">
+      <c r="K96" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
     </row>
     <row r="97" ht="40.5" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J97" s="12" t="s">
+      <c r="D97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="K97" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
     </row>
     <row r="98" ht="40.5" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="12" t="s">
+      <c r="D98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G98" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" s="12" t="s">
+      <c r="G98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K98" s="16" t="s">
+      <c r="K98" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
     </row>
     <row r="99" ht="67.5" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="12" t="s">
+      <c r="D99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G99" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J99" s="12" t="s">
+      <c r="G99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="K99" s="16" t="s">
+      <c r="K99" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
     </row>
     <row r="100" ht="81" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J100" s="13" t="s">
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K100" s="16" t="s">
+      <c r="K100" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
     </row>
     <row r="101" ht="54" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="12" t="s">
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G101" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="12" t="s">
+      <c r="G101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="K101" s="16" t="s">
+      <c r="K101" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
     </row>
     <row r="102" ht="54" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="12" t="s">
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="3" t="s">
         <v>395</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -6502,148 +6486,148 @@
       <c r="I102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="12"/>
-      <c r="K102" s="16" t="s">
+      <c r="J102" s="3"/>
+      <c r="K102" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
     <row r="103" ht="81" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="12" t="s">
+      <c r="D103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H103" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" s="12"/>
-      <c r="K103" s="16" t="s">
+      <c r="H103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
     </row>
     <row r="104" ht="54" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="12" t="s">
+      <c r="D104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H104" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J104" s="12"/>
-      <c r="K104" s="16" t="s">
+      <c r="H104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
     </row>
     <row r="105" ht="81" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="12" t="s">
+      <c r="D105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J105" s="12"/>
-      <c r="K105" s="16" t="s">
+      <c r="H105" s="3"/>
+      <c r="I105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" s="3"/>
+      <c r="K105" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
     </row>
     <row r="106" ht="81" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D106" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="12" t="s">
+      <c r="D106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G106" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" s="12"/>
-      <c r="K106" s="16" t="s">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
